--- a/数据整理/stocks/港股/09988-阿里巴巴.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,124 +22,190 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>510900</t>
+  </si>
+  <si>
+    <t>159920</t>
+  </si>
+  <si>
+    <t>161831</t>
+  </si>
+  <si>
+    <t>470888</t>
+  </si>
+  <si>
+    <t>164705</t>
+  </si>
+  <si>
+    <t>160717</t>
+  </si>
+  <si>
     <t>100055</t>
   </si>
   <si>
-    <t>470888</t>
+    <t>050015</t>
+  </si>
+  <si>
+    <t>160924</t>
   </si>
   <si>
     <t>010789</t>
   </si>
   <si>
-    <t>159920</t>
-  </si>
-  <si>
-    <t>160717</t>
-  </si>
-  <si>
-    <t>160924</t>
-  </si>
-  <si>
-    <t>161831</t>
-  </si>
-  <si>
-    <t>164705</t>
-  </si>
-  <si>
-    <t>510900</t>
-  </si>
-  <si>
-    <t>050015</t>
+    <t>易方达恒生国企(QDII-ETF)</t>
+  </si>
+  <si>
+    <t>华夏恒生ETF(QDII)</t>
+  </si>
+  <si>
+    <t>银华恒生国企指数（QDII-LOF）</t>
+  </si>
+  <si>
+    <t>汇添富香港优势精选混合 (QDII)</t>
+  </si>
+  <si>
+    <t>汇添富恒生指数（QDII-LOF）A</t>
+  </si>
+  <si>
+    <t>嘉实恒生中国企业指数(QDII-LOF)</t>
   </si>
   <si>
     <t>富国全球科技互联网股票(QDII)</t>
   </si>
   <si>
-    <t>汇添富香港优势精选混合 (QDII)</t>
+    <t>博时大中华亚太精选股票(QDII) -人民币</t>
+  </si>
+  <si>
+    <t>大成恒生指数（QDII-LOF）</t>
   </si>
   <si>
     <t>汇添富恒生指数（QDII-LOF）C</t>
   </si>
   <si>
-    <t>华夏恒生ETF(QDII)</t>
-  </si>
-  <si>
-    <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-  </si>
-  <si>
-    <t>大成恒生指数（QDII-LOF）</t>
-  </si>
-  <si>
-    <t>银华恒生国企指数（QDII-LOF）</t>
-  </si>
-  <si>
-    <t>汇添富恒生指数（QDII-LOF）A</t>
-  </si>
-  <si>
-    <t>易方达恒生国企(QDII-ETF)</t>
-  </si>
-  <si>
-    <t>博时大中华亚太精选股票(QDII) -人民币</t>
+    <t>99.64</t>
+  </si>
+  <si>
+    <t>88.25</t>
+  </si>
+  <si>
+    <t>8.31</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>98.44</t>
+  </si>
+  <si>
+    <t>91.45</t>
+  </si>
+  <si>
+    <t>87.19</t>
+  </si>
+  <si>
+    <t>83.17</t>
+  </si>
+  <si>
+    <t>93.97</t>
+  </si>
+  <si>
+    <t>94.74</t>
   </si>
   <si>
     <t>92.16</t>
   </si>
   <si>
-    <t>83.17</t>
-  </si>
-  <si>
-    <t>93.97</t>
-  </si>
-  <si>
-    <t>91.45</t>
-  </si>
-  <si>
-    <t>94.74</t>
+    <t>97.00</t>
   </si>
   <si>
     <t>94.28</t>
   </si>
   <si>
-    <t>87.19</t>
-  </si>
-  <si>
-    <t>98.44</t>
-  </si>
-  <si>
-    <t>97.00</t>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>8.89</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>4.55</t>
   </si>
   <si>
     <t>4.29</t>
   </si>
   <si>
-    <t>8.89</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>4.04</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
     <t>5.74</t>
+  </si>
+  <si>
+    <t>4.2845</t>
+  </si>
+  <si>
+    <t>3.5653</t>
+  </si>
+  <si>
+    <t>0.3515</t>
+  </si>
+  <si>
+    <t>0.1565</t>
+  </si>
+  <si>
+    <t>0.1228</t>
+  </si>
+  <si>
+    <t>0.0896</t>
+  </si>
+  <si>
+    <t>0.0648</t>
+  </si>
+  <si>
+    <t>0.0585</t>
+  </si>
+  <si>
+    <t>0.0349</t>
+  </si>
+  <si>
+    <t>0.0037</t>
   </si>
 </sst>
 </file>
@@ -497,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,205 +585,271 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11">
-        <v>4</v>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/09988-阿里巴巴.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,13 +939,1129 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>188.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.3583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6358</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.3547</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7611</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>8.73</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09988-阿里巴巴.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.63</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>32.6175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2055,13 +2098,1259 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>151.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.5147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.0220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>101.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.1150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.3528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.5444</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7276</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6841</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>8.73</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09988-阿里巴巴.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,437 +453,1357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>99.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2845</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86.31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159920</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏恒生ETF(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.5653</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.63</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3515</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1565</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>164705</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富恒生指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1228</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0896</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100055</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国全球科技互联网股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0648</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>050015</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0585</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160924</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成恒生指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010789</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富恒生指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>32.6175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>151.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.5147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.0220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>101.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.1150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.3528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.5444</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7276</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6841</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2003,99 +2923,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏恒生互联网科技业ETF（QDII）</t>
+          <t>易方达恒生国企(QDII-ETF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>233.65</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.98</t>
+          <t>98.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>32.6175</t>
+          <t>4.2845</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>159920</t>
@@ -2108,1253 +3028,333 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>151.31</t>
+          <t>88.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.19</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.5147</t>
+          <t>3.5653</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>164906</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>110.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>11.0220</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510900</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>101.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>9.1150</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>513180</t>
+          <t>164705</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.3528</t>
+          <t>0.1228</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>118001</t>
+          <t>160717</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达亚洲精选股票(QDII)</t>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.5444</t>
+          <t>0.0896</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>513010</t>
+          <t>100055</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>富国全球科技互联网股票(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26.24</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.4272</t>
+          <t>0.0648</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>377016</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根亚太优势混合(QDII)</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.02</t>
+          <t>97.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7276</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159740</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>大成恒生指数（QDII-LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6841</t>
+          <t>0.0349</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>010789</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6510</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.35</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.59</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6510</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159850</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5334</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>513580</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4512</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>159747</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>100.03</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>13.46</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.4132</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159742</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3529</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>159741</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>99.73</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3211</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2254</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>164705</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富恒生指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2182</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>86.34</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2130</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>012379</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>73.95</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1980</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>513890</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>上投摩根恒生科技ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1932</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>161229</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国投瑞银中国价值发现股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1383</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>013127</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇添富恒生科技指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1356</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>862001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1318</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>862011</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1318</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>862012</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1318</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>160924</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成恒生指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0675</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>013128</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>汇添富恒生科技指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0566</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>012380</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>73.95</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0474</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010789</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>汇添富恒生指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>378006</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>上投摩根全球新兴市场混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>86.31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.63</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/09988-阿里巴巴.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>86.31</v>
+        <v>186.81</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>44.63</v>
+        <v>86.31</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>8.73</v>
       </c>
     </row>
@@ -532,6 +549,2494 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>364.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>82.9874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>246.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>23.7897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>163.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.7513</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.8546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达优质精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>189.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9.0883</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>113.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8.8894</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8.1847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>101.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>7.6278</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.6228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8880</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3930</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9831</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9831</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6892</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6760</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6744</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-人民币（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5472</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5472</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5472</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4853</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513260</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015884</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015885</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-2.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-0.1169</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1803,7 +4308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2923,7 +5428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
